--- a/pandas/top5movies.xlsx
+++ b/pandas/top5movies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,597 +436,617 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Genres</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Language</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Content Rating</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Aspect Ratio</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Budget</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Gross Earnings</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Director</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Actor 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Actor 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Actor 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Facebook Likes - Director</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Facebook Likes - Actor 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Facebook Likes - Actor 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Facebook Likes - Actor 3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Facebook Likes - cast Total</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Facebook likes - Movie</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Facenumber in posters</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>User Votes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Reviews by Users</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Reviews by Crtiics</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>IMDB Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Avatar </t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>2009</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Action|Adventure|Fantasy|Sci-Fi</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>PG-13</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>178</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1.78</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>237000000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>760505847</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>James Cameron</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>CCH Pounder</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Joel David Moore</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Wes Studi</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>1000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>936</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>855</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>4834</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>33000</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>886204</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>3054</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>723</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>7.9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Titanic </t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>1997</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Drama|Romance</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>PG-13</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>194</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>2.35</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>200000000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>658672302</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>James Cameron</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Leonardo DiCaprio</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Kate Winslet</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Gloria Stuart</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>29000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>14000</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>794</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>45223</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>26000</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>793059</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>2528</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>315</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>7.7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jurassic World </t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>2015</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Action|Adventure|Sci-Fi|Thriller</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>PG-13</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>124</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>150000000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>652177271</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Colin Trevorrow</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Bryce Dallas Howard</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Judy Greer</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Omar Sy</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>365</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>3000</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>2000</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1000</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>8458</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>150000</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>418214</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>1290</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>644</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">The Avengers </t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2012</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Action|Adventure|Sci-Fi</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>PG-13</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>173</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1.85</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>220000000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>623279547</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Joss Whedon</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Chris Hemsworth</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Robert Downey Jr.</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Scarlett Johansson</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>26000</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>21000</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>19000</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>87697</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>123000</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>3</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>995415</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>1722</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>703</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>8.1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">The Dark Knight </t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2008</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Action|Crime|Drama|Thriller</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>PG-13</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>152</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>2.35</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>185000000</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>533316061</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Christopher Nolan</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Christian Bale</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Heath Ledger</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Morgan Freeman</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>22000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>23000</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>13000</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>11000</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>57802</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>37000</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>1676169</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>4667</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>645</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>9</v>
       </c>
     </row>
